--- a/biology/Botanique/La_Vierge_à_la_roseraie/La_Vierge_à_la_roseraie.xlsx
+++ b/biology/Botanique/La_Vierge_à_la_roseraie/La_Vierge_à_la_roseraie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Vierge_%C3%A0_la_roseraie</t>
+          <t>La_Vierge_à_la_roseraie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Vierge à la roseraie ou Vierge au buisson de roses est le titre de plusieurs tableaux utilisant le thème de l'iconographie chrétienne de la vierge Marie sur fond de rosier, d'un mur de roses épanouies, la vierge Marie étant définie comme une « rose sans épines » (en référence à la période biblique d'avant le péché originel) :
 Stefan Lochner, La Vierge au buisson de roses (1448), Cologne, Wallraf-Richartz Museum.
